--- a/doc/03_内部設計/URL マッピング.xlsx
+++ b/doc/03_内部設計/URL マッピング.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28502"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E806CDBD-33AC-4649-957A-159C69D87A28}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{801642ED-E711-4D69-822A-65C0DEAAC9AB}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>AccountController</t>
   </si>
@@ -83,6 +83,27 @@
   </si>
   <si>
     <t>ログイン実行</t>
+  </si>
+  <si>
+    <t>/signup</t>
+  </si>
+  <si>
+    <t>showsign()</t>
+  </si>
+  <si>
+    <t>新規会員登録画面の表示</t>
+  </si>
+  <si>
+    <t>userName
+email
+password
+role</t>
+  </si>
+  <si>
+    <t>signup()</t>
+  </si>
+  <si>
+    <t>新規会員登録処理</t>
   </si>
   <si>
     <t>MuseumController</t>
@@ -163,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -186,11 +207,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -207,6 +241,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F15"/>
+  <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -601,122 +644,147 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="30.75">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B7" s="3" t="s">
+    <row r="6" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B8" s="6" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="60.75">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B9" s="4" t="s">
+    <row r="11" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B12" s="3" t="s">
-        <v>20</v>
+      <c r="F11" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="30.75">
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30.75">
+      <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
